--- a/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,78%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,95</t>
+          <t>-4,93; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 20,93</t>
+          <t>-4,35; 27,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 6,27</t>
+          <t>-2,26; 16,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 8,08</t>
+          <t>-1,19; 17,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,87</t>
+          <t>-6,94; -0,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 28,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 7,1</t>
+          <t>-5,09; 8,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 9,11</t>
+          <t>-4,67; 42,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,02</t>
+          <t>-2,39; 20,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 21,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; -0,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>-4,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,48</t>
+          <t>-7,75; 1,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -0,82</t>
+          <t>-4,87; 1,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,51</t>
+          <t>-7,6; -1,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,23</t>
+          <t>-6,5; -0,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,57</t>
+          <t>-7,49; 1,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -0,53</t>
+          <t>-7,98; 1,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,2</t>
+          <t>-5,0; 1,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,21</t>
+          <t>-7,86; -1,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; -0,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 1,35</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,35</t>
+          <t>-0,29; 8,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 5,68</t>
+          <t>-4,0; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,12</t>
+          <t>-3,92; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,37</t>
+          <t>-5,38; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,86</t>
+          <t>-4,13; 4,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,57</t>
+          <t>-0,31; 10,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,47</t>
+          <t>-4,15; 4,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,01</t>
+          <t>-4,12; 3,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 1,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 4,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,77</t>
+          <t>-1,76; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,62</t>
+          <t>-4,8; 0,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,81</t>
+          <t>-2,18; 5,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,0</t>
+          <t>-1,96; 4,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,86</t>
+          <t>-1,83; 2,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,03</t>
+          <t>-4,93; 0,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,22</t>
+          <t>-2,3; 5,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 4,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 2,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 2,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 1,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 1,13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 2,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 2,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 1,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 1,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 1,2</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
